--- a/medicine/Enfance/Charlotte_des_Ligneris/Charlotte_des_Ligneris.xlsx
+++ b/medicine/Enfance/Charlotte_des_Ligneris/Charlotte_des_Ligneris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte des Ligneris, née en 1984, est une auteure de littérature jeunesse et une illustratrice française.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlotte des Ligneris est diplômée de l’atelier d’illustration de l'École supérieure des arts décoratifs de Strasbourg. Elle vit et travaille à Nantes[1]. Elle fait partie du collectif d'artistes Projeta[2]. Elle enseigne l'illustration à l’École supérieure des métiers artistiques, pour la section Cinéma d’Animation[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlotte des Ligneris est diplômée de l’atelier d’illustration de l'École supérieure des arts décoratifs de Strasbourg. Elle vit et travaille à Nantes. Elle fait partie du collectif d'artistes Projeta. Elle enseigne l'illustration à l’École supérieure des métiers artistiques, pour la section Cinéma d’Animation.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2010 : À Maman, collectif, textes de Victor Hugo, Éditions Mouck
 2010 : Les histoires de Tom Pouce racontées dans le monde, textes de Fabienne Morel et Gilles Bizouerne, Éditions Syros
@@ -553,7 +569,7 @@
 2013 : Fabuleuses histoires d'enfants sauvages , texte de Gérard Pourret, Éditions Mouck
 2014 : Le grand méchant livre, texte de Catherine Leblanc, Seuil Jeunesse
 2014 : À la poursuite du Chagaga, texte de Sylvie Misslin, Éditions amaterra
-2016 : Fonce, petit Paul[4], texte de Hubert Ben Kemoun, Nathan
+2016 : Fonce, petit Paul, texte de Hubert Ben Kemoun, Nathan
 2016 : Les questions des petits sur les religions, avec Anouk Ricard, texte de Marie Aubinais et Martine Laffont, Bayard jeunesse
 2016 : Paul Verlaine, Chanson d'automne et autres poèmes, coll. « Enfance en poésie », Gallimard jeunesse
 2016 : Tout Rond, livre-CD, texte de Christos, Benjamins-media
@@ -596,11 +612,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix des Enfants, Salon du Livre et de la Presse jeunesse de Montreuil, 2008
-Coup de cœur Jeune Public automne 2016 de l'Académie Charles-Cros pour les illustrations de Tout rond[5].
-Sélection Prix Sorcières 2022[6] Catégorie Carrément beau maxi pour C'est l'histoire, avec Corinne Dreyfuss</t>
+Coup de cœur Jeune Public automne 2016 de l'Académie Charles-Cros pour les illustrations de Tout rond.
+Sélection Prix Sorcières 2022 Catégorie Carrément beau maxi pour C'est l'histoire, avec Corinne Dreyfuss</t>
         </is>
       </c>
     </row>
